--- a/data/trans_camb/P0901-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P0901-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>8.635594331120465</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>14.75594130727626</v>
+        <v>14.75594130727625</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.803162410377727</v>
+        <v>4.02305048532038</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.069189051218841</v>
+        <v>1.802610547457571</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.271089956737756</v>
+        <v>7.493152385374937</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.103190504795585</v>
+        <v>7.109979717712871</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.607163089460903</v>
+        <v>6.999020553862184</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>13.32249278808146</v>
+        <v>12.98635661545866</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>6.800833767279961</v>
+        <v>6.90535797568079</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.934659398324479</v>
+        <v>5.268664355288701</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>12.02298115719229</v>
+        <v>11.59949210834999</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.38934111903314</v>
+        <v>11.46557687900607</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.6881995222254</v>
+        <v>9.611733699383381</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.75482705245778</v>
+        <v>15.58265927002554</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.29086905709401</v>
+        <v>14.500504816076</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>14.76080345516334</v>
+        <v>14.88231594100981</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>20.59234144376937</v>
+        <v>20.17342727954894</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>12.02853067605287</v>
+        <v>12.24902815622486</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>11.43788516011227</v>
+        <v>11.23759463161168</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.46465927145492</v>
+        <v>17.61659223771185</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.3857623603677914</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.659165603417699</v>
+        <v>0.6591656034176988</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1972294862993006</v>
+        <v>0.2073709379652692</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1025566127697798</v>
+        <v>0.09049677291369115</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3838277523428686</v>
+        <v>0.3839300357425657</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2541454171526672</v>
+        <v>0.2512401774350281</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2342085755191209</v>
+        <v>0.2481014950801854</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4685617667025181</v>
+        <v>0.4612306501721744</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2909678009928816</v>
+        <v>0.2942897734836428</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2547864899936277</v>
+        <v>0.2313261638904823</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.5040172078668016</v>
+        <v>0.4940415693489191</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7308676549708724</v>
+        <v>0.7214903078653294</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6277840195466564</v>
+        <v>0.6111831181230555</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.009379359600416</v>
+        <v>0.9850595540149282</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5882785777069488</v>
+        <v>0.5818221302147869</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5947283139893484</v>
+        <v>0.596709118791856</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8398654417811182</v>
+        <v>0.8157017295161291</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5692454870146352</v>
+        <v>0.5755376492528248</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5313112213931147</v>
+        <v>0.5307243389278302</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.8206204834121087</v>
+        <v>0.8410336367900492</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.08474851586849319</v>
+        <v>-0.1642468039548713</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01493591039658224</v>
+        <v>-0.02855810273258601</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.254155716436873</v>
+        <v>4.338344353387926</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.7468113558391499</v>
+        <v>-0.7708454250140458</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.003597961023682</v>
+        <v>1.008286559941321</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.372902877148677</v>
+        <v>3.491650604144578</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1718826447906651</v>
+        <v>-0.00539264933307506</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.089746685879418</v>
+        <v>1.012226576867388</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.491851002786857</v>
+        <v>4.447078221926524</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.983099608313123</v>
+        <v>2.983092906113921</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.269168664863735</v>
+        <v>3.284571357632175</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.99451399386955</v>
+        <v>8.091137029973229</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.768183562816062</v>
+        <v>3.613703691415094</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.464393491929863</v>
+        <v>5.464041250672753</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.539007913613535</v>
+        <v>7.567591419452975</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.783917922094861</v>
+        <v>2.784291242731016</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.850350822685126</v>
+        <v>3.730795019982526</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.179494207244858</v>
+        <v>7.106644017662739</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.01504660432786258</v>
+        <v>-0.02666433856625933</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.0003471822452760062</v>
+        <v>-0.002221754454791879</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.631078978798235</v>
+        <v>0.6779411294697038</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.06710372756220041</v>
+        <v>-0.06745113202945768</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08928669891827988</v>
+        <v>0.08561724966016097</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2939064370227286</v>
+        <v>0.3021163939183197</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02057607747593081</v>
+        <v>-0.001380166043831652</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1327948071318163</v>
+        <v>0.1209289594956071</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.5293720507162047</v>
+        <v>0.5161383552488509</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6404341519421897</v>
+        <v>0.6280365852004095</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6733522384169187</v>
+        <v>0.7086463640006808</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.660319994093757</v>
+        <v>1.710887152103196</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4190679178200573</v>
+        <v>0.391242388422145</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5928393452419114</v>
+        <v>0.605137847013027</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8327900129152291</v>
+        <v>0.8316945883207579</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.395605483565563</v>
+        <v>0.389395805923235</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5554093951712438</v>
+        <v>0.5264671479283951</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9956451644064183</v>
+        <v>0.9996113937640898</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.002068692970105</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.150920440401736</v>
+        <v>3.150920440401733</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-1.103339248269966</v>
@@ -1092,7 +1092,7 @@
         <v>1.148822486090592</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.413458235491058</v>
+        <v>2.413458235491056</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.106597934344909</v>
+        <v>-1.080870629777484</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.875895959635032</v>
+        <v>-1.744684626955032</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5548542904893548</v>
+        <v>0.2549946998865316</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.017642373473164</v>
+        <v>-4.947337200667599</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.726296669162696</v>
+        <v>-2.662403513788626</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.983789883247121</v>
+        <v>-2.030510226915882</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.056884379877142</v>
+        <v>-1.976175052183835</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.400130702004435</v>
+        <v>-1.096947802107171</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1607700694643572</v>
+        <v>0.2780904748731193</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.298814872961134</v>
+        <v>5.389985947973519</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.597359018497273</v>
+        <v>3.877825395884861</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.164558361919068</v>
+        <v>5.884135082762163</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.579924154844827</v>
+        <v>2.635472999107668</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.232879965874843</v>
+        <v>5.038456872081428</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.392012795165939</v>
+        <v>4.447254105508765</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.677520105785155</v>
+        <v>3.229137896592939</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.471869002645315</v>
+        <v>3.632418183347521</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.592357388102569</v>
+        <v>4.516188716031086</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2216339169693753</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.696909148209403</v>
+        <v>0.6969091482094023</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.121207054458635</v>
@@ -1197,7 +1197,7 @@
         <v>0.1728865331415003</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.3632018281917128</v>
+        <v>0.3632018281917125</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2081496441866223</v>
+        <v>-0.2206858930484635</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3373007453350677</v>
+        <v>-0.3313332896822139</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.04129360323033996</v>
+        <v>0.03375195060996693</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4366061196411367</v>
+        <v>-0.4497980192818296</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2471977879460982</v>
+        <v>-0.2451868505406214</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1804487860959859</v>
+        <v>-0.181680796763216</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2618901407554962</v>
+        <v>-0.2626100787499153</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.173532960821447</v>
+        <v>-0.1337972868929205</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.01357772268215613</v>
+        <v>0.02772847852846272</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.573856076543037</v>
+        <v>1.633973183164721</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.06094576351912</v>
+        <v>1.234060704604614</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.89131992120233</v>
+        <v>1.770696194413226</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3715607584126586</v>
+        <v>0.3554256337006864</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7330523025450404</v>
+        <v>0.7098088190694074</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6307413295081669</v>
+        <v>0.6474977827839254</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4801029325212592</v>
+        <v>0.5698060237718983</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6301254782332492</v>
+        <v>0.6795088602147592</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.8306099921734494</v>
+        <v>0.7873788471821249</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>2.327288264928423</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.519673480396843</v>
+        <v>4.519673480396849</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.466309061194291</v>
+        <v>1.436713733152132</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05058626178248192</v>
+        <v>0.08149006107632546</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.167622336529239</v>
+        <v>3.083832376352531</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.604200082148993</v>
+        <v>2.527893590633797</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.048254048924436</v>
+        <v>1.34789933116135</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.650113215295533</v>
+        <v>2.679492938860634</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.55604937981802</v>
+        <v>2.562610761990105</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.093397592152723</v>
+        <v>1.06452911247697</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.45485507239603</v>
+        <v>3.337576220622059</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.649038904820694</v>
+        <v>4.3986371886779</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.968467755621059</v>
+        <v>2.966814051583093</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.339665925455523</v>
+        <v>6.0968510609681</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.441929712266186</v>
+        <v>6.188363513931385</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.914250247660867</v>
+        <v>5.113518423949523</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.373268363458437</v>
+        <v>6.106347055372472</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.948488158600193</v>
+        <v>5.031476523579412</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.469157416586609</v>
+        <v>3.555331785193387</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.556759232380848</v>
+        <v>5.674097581443484</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.1825444249470942</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3545075222785296</v>
+        <v>0.35450752227853</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1516137569615406</v>
+        <v>0.1500283805341126</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.004507884592519494</v>
+        <v>0.007000737596325799</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3196284316661224</v>
+        <v>0.3217275199072293</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1470261723882754</v>
+        <v>0.1471320199619306</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.05759399770404786</v>
+        <v>0.07554683823910528</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1561443399935859</v>
+        <v>0.1506207698049407</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1887553158197361</v>
+        <v>0.1906069322656123</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.08221491147072855</v>
+        <v>0.08145088770769611</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.25634890645862</v>
+        <v>0.2470615750727763</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5622173525148759</v>
+        <v>0.517331043439112</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3592327815456689</v>
+        <v>0.3369909352634004</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7659413820201636</v>
+        <v>0.723164824939921</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4128186220772117</v>
+        <v>0.4003802581976232</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3142211344224195</v>
+        <v>0.3229258305296631</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4231461998100777</v>
+        <v>0.3959348152923615</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3980876877614754</v>
+        <v>0.4139344878632166</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2826546629594014</v>
+        <v>0.2897289304778803</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4561960724906537</v>
+        <v>0.4635793811173817</v>
       </c>
     </row>
     <row r="28">
